--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>765730.4060955478</v>
+        <v>763348.4632508394</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673447</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>235.0287412712572</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>64.43856447801353</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>55.72922319776339</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>155.5598945400495</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>180.4206502410187</v>
+        <v>299.5215209693911</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
         <v>89.59687541851115</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>106.4735778903241</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>233.3257147283072</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>51.43582349300159</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>20.92365879439055</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>32.79376842490247</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>39.40913636556952</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>350.9767257361309</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8285574716261</v>
+        <v>378.0714415442818</v>
       </c>
       <c r="H11" t="n">
         <v>283.4123557451817</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.27719184478643</v>
+        <v>84.27719184478634</v>
       </c>
       <c r="T11" t="n">
         <v>199.1326264236712</v>
@@ -1464,7 +1464,7 @@
         <v>134.4145726238936</v>
       </c>
       <c r="H12" t="n">
-        <v>83.94800618572394</v>
+        <v>83.94800618572393</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.2793109108217</v>
+        <v>117.2793109108216</v>
       </c>
       <c r="T12" t="n">
         <v>188.3590268016972</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>109.2806005165129</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5354506463192</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.60602965673459</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.88389128405883</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.2234294808677</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.453784930958</v>
       </c>
       <c r="U13" t="n">
         <v>286.1850914267378</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>98.75705719648009</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634813</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>99.51021285348546</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892419</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>43.61939039064332</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>177.9329820852613</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>43.61939039064338</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>27.31547498186468</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>39.39795577638932</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189113</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>112.5005260950165</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189018</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272911</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819389</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>141.9273329298488</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3244,10 +3244,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>181.2557668969884</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>43.34824157860919</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833801</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>14.19454216862603</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552929</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>13.725828648537</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833838</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,13 +4192,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>132.503942593394</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.526882613611</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1168.124113652745</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D2" t="n">
-        <v>809.8584150459947</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.266054653544</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1792.126722677733</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.0565485757129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>774.7644039315074</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>763.7557992120743</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>541.9891837816003</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>541.9891837816003</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757129</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757129</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X4" t="n">
-        <v>831.0565485757129</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y4" t="n">
-        <v>831.0565485757129</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943748</v>
+        <v>1892.963660013482</v>
       </c>
       <c r="C5" t="n">
-        <v>1126.127214892214</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>767.8615162854633</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>382.0732636872191</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4598,19 +4598,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959803</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U7" t="n">
-        <v>310.0549803959803</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V7" t="n">
-        <v>310.0549803959803</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W7" t="n">
-        <v>310.0549803959803</v>
+        <v>463.4378502581077</v>
       </c>
       <c r="X7" t="n">
-        <v>310.0549803959803</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.0549803959803</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.236214140705</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>926.2736972002929</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
@@ -4820,7 +4820,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052367</v>
@@ -4841,13 +4841,13 @@
         <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180638</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204826</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.7293032143256</v>
+        <v>246.5270825411063</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143256</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218339</v>
@@ -4960,52 +4960,52 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450105</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450105</v>
       </c>
       <c r="U10" t="n">
-        <v>541.9536817013565</v>
+        <v>729.2011216450105</v>
       </c>
       <c r="V10" t="n">
-        <v>502.1464732512862</v>
+        <v>474.5166334391237</v>
       </c>
       <c r="W10" t="n">
-        <v>212.7293032143256</v>
+        <v>474.5166334391237</v>
       </c>
       <c r="X10" t="n">
-        <v>212.7293032143256</v>
+        <v>246.5270825411063</v>
       </c>
       <c r="Y10" t="n">
-        <v>212.7293032143256</v>
+        <v>246.5270825411063</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.427739644498</v>
+        <v>2285.349844768391</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.465222704086</v>
+        <v>1916.38732782798</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.199524097336</v>
+        <v>1558.12162922123</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.411271499092</v>
+        <v>1172.333376622986</v>
       </c>
       <c r="F11" t="n">
-        <v>793.425366709484</v>
+        <v>761.3474718333784</v>
       </c>
       <c r="G11" t="n">
-        <v>379.4571268391546</v>
+        <v>379.4571268391547</v>
       </c>
       <c r="H11" t="n">
-        <v>93.18202002583976</v>
+        <v>93.18202002583986</v>
       </c>
       <c r="I11" t="n">
-        <v>93.74378221724078</v>
+        <v>93.74378221724055</v>
       </c>
       <c r="J11" t="n">
-        <v>374.4763833189066</v>
+        <v>374.4763833189072</v>
       </c>
       <c r="K11" t="n">
-        <v>845.9602981967746</v>
+        <v>845.9602981967755</v>
       </c>
       <c r="L11" t="n">
         <v>1467.779547920358</v>
       </c>
       <c r="M11" t="n">
-        <v>2191.342712424491</v>
+        <v>2191.342712424492</v>
       </c>
       <c r="N11" t="n">
-        <v>2931.227693771132</v>
+        <v>2931.227693771134</v>
       </c>
       <c r="O11" t="n">
-        <v>3616.544839741363</v>
+        <v>3616.544839741366</v>
       </c>
       <c r="P11" t="n">
-        <v>4166.946167595463</v>
+        <v>4166.946167595466</v>
       </c>
       <c r="Q11" t="n">
-        <v>4532.101896191494</v>
+        <v>4532.101896191499</v>
       </c>
       <c r="R11" t="n">
-        <v>4659.101001291988</v>
+        <v>4659.101001291993</v>
       </c>
       <c r="S11" t="n">
-        <v>4573.972524681092</v>
+        <v>4573.972524681098</v>
       </c>
       <c r="T11" t="n">
-        <v>4372.828457586475</v>
+        <v>4372.82845758648</v>
       </c>
       <c r="U11" t="n">
-        <v>4119.386317683086</v>
+        <v>4119.38631768309</v>
       </c>
       <c r="V11" t="n">
-        <v>3788.323430339515</v>
+        <v>3788.323430339519</v>
       </c>
       <c r="W11" t="n">
-        <v>3435.5547750694</v>
+        <v>3435.554775069405</v>
       </c>
       <c r="X11" t="n">
-        <v>3062.089016808321</v>
+        <v>3062.089016808325</v>
       </c>
       <c r="Y11" t="n">
-        <v>2671.949684832509</v>
+        <v>2671.949684832513</v>
       </c>
     </row>
     <row r="12">
@@ -5109,40 +5109,40 @@
         <v>313.7502814496959</v>
       </c>
       <c r="G12" t="n">
-        <v>177.9779858700054</v>
+        <v>177.9779858700055</v>
       </c>
       <c r="H12" t="n">
-        <v>93.18202002583976</v>
+        <v>93.18202002583986</v>
       </c>
       <c r="I12" t="n">
-        <v>93.18202002583976</v>
+        <v>94.48947999821897</v>
       </c>
       <c r="J12" t="n">
-        <v>93.18202002583976</v>
+        <v>242.874047046527</v>
       </c>
       <c r="K12" t="n">
-        <v>93.18202002583976</v>
+        <v>574.6417312031194</v>
       </c>
       <c r="L12" t="n">
-        <v>97.59301880701264</v>
+        <v>1067.066866382016</v>
       </c>
       <c r="M12" t="n">
-        <v>691.586793539926</v>
+        <v>1067.066866382016</v>
       </c>
       <c r="N12" t="n">
-        <v>1315.710460922127</v>
+        <v>1691.190533764217</v>
       </c>
       <c r="O12" t="n">
-        <v>1864.441888922515</v>
+        <v>2239.921961764606</v>
       </c>
       <c r="P12" t="n">
-        <v>2285.514170666792</v>
+        <v>2285.514170666791</v>
       </c>
       <c r="Q12" t="n">
         <v>2517.070643503913</v>
       </c>
       <c r="R12" t="n">
-        <v>2552.880906112863</v>
+        <v>2552.880906112862</v>
       </c>
       <c r="S12" t="n">
         <v>2434.416955697891</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>601.117417466381</v>
+        <v>93.18202002583986</v>
       </c>
       <c r="C13" t="n">
-        <v>601.117417466381</v>
+        <v>93.18202002583986</v>
       </c>
       <c r="D13" t="n">
-        <v>490.7329725002064</v>
+        <v>93.18202002583986</v>
       </c>
       <c r="E13" t="n">
-        <v>342.8198789178133</v>
+        <v>93.18202002583986</v>
       </c>
       <c r="F13" t="n">
-        <v>342.8198789178133</v>
+        <v>93.18202002583986</v>
       </c>
       <c r="G13" t="n">
-        <v>175.6123530124403</v>
+        <v>93.18202002583986</v>
       </c>
       <c r="H13" t="n">
-        <v>175.6123530124403</v>
+        <v>93.18202002583986</v>
       </c>
       <c r="I13" t="n">
-        <v>93.18202002583976</v>
+        <v>93.18202002583986</v>
       </c>
       <c r="J13" t="n">
-        <v>139.3263739496205</v>
+        <v>139.3263739496207</v>
       </c>
       <c r="K13" t="n">
-        <v>294.0381608310805</v>
+        <v>294.0381608310809</v>
       </c>
       <c r="L13" t="n">
-        <v>521.9217803376253</v>
+        <v>521.9217803376259</v>
       </c>
       <c r="M13" t="n">
-        <v>765.4513884802952</v>
+        <v>765.4513884802961</v>
       </c>
       <c r="N13" t="n">
-        <v>1011.047932762719</v>
+        <v>1011.04793276272</v>
       </c>
       <c r="O13" t="n">
-        <v>1217.583003442505</v>
+        <v>1217.583003442506</v>
       </c>
       <c r="P13" t="n">
-        <v>1375.247465310589</v>
+        <v>1375.247465310591</v>
       </c>
       <c r="Q13" t="n">
-        <v>1428.818388405093</v>
+        <v>1428.818388405095</v>
       </c>
       <c r="R13" t="n">
-        <v>1361.258902259579</v>
+        <v>1428.818388405095</v>
       </c>
       <c r="S13" t="n">
-        <v>1361.258902259579</v>
+        <v>1245.764419232501</v>
       </c>
       <c r="T13" t="n">
-        <v>1361.258902259579</v>
+        <v>1026.114131423453</v>
       </c>
       <c r="U13" t="n">
-        <v>1072.183052333581</v>
+        <v>737.038281497455</v>
       </c>
       <c r="V13" t="n">
-        <v>1072.183052333581</v>
+        <v>482.3537932915682</v>
       </c>
       <c r="W13" t="n">
-        <v>782.7658822966207</v>
+        <v>192.9366232546076</v>
       </c>
       <c r="X13" t="n">
-        <v>782.7658822966207</v>
+        <v>192.9366232546076</v>
       </c>
       <c r="Y13" t="n">
-        <v>782.7658822966207</v>
+        <v>93.18202002583986</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5309,16 +5309,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.0735937191748</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C16" t="n">
-        <v>533.5582272005026</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881669</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,49 +5437,49 @@
         <v>140.7528025687996</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131325</v>
+        <v>296.7657364131321</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629333</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936171</v>
+        <v>771.5995144936168</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q16" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.555541309953</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T16" t="n">
-        <v>1440.555541309953</v>
+        <v>971.0535382402009</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.480314654153</v>
+        <v>681.9783115843986</v>
       </c>
       <c r="V16" t="n">
-        <v>1151.480314654153</v>
+        <v>427.2938233785118</v>
       </c>
       <c r="W16" t="n">
-        <v>862.0631446171922</v>
+        <v>137.8766533415512</v>
       </c>
       <c r="X16" t="n">
-        <v>634.0735937191748</v>
+        <v>137.8766533415512</v>
       </c>
       <c r="Y16" t="n">
-        <v>634.0735937191748</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="17">
@@ -5516,25 +5516,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C19" t="n">
         <v>93.81666304797187</v>
@@ -5683,7 +5683,7 @@
         <v>771.5995144936165</v>
       </c>
       <c r="N19" t="n">
-        <v>1018.909846477608</v>
+        <v>1018.909846477607</v>
       </c>
       <c r="O19" t="n">
         <v>1227.027877484369</v>
@@ -5695,28 +5695,28 @@
         <v>1440.555541309952</v>
       </c>
       <c r="R19" t="n">
-        <v>1440.555541309952</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S19" t="n">
-        <v>1257.700706964857</v>
+        <v>1190.655003217259</v>
       </c>
       <c r="T19" t="n">
-        <v>1038.099241987798</v>
+        <v>971.0535382402003</v>
       </c>
       <c r="U19" t="n">
-        <v>749.0240153319959</v>
+        <v>681.9783115843986</v>
       </c>
       <c r="V19" t="n">
-        <v>494.339527126109</v>
+        <v>427.2938233785118</v>
       </c>
       <c r="W19" t="n">
-        <v>314.6092421915019</v>
+        <v>137.8766533415512</v>
       </c>
       <c r="X19" t="n">
-        <v>314.6092421915019</v>
+        <v>137.8766533415512</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>984.5467179762946</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>815.6105350483878</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D22" t="n">
-        <v>665.493895636052</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E22" t="n">
-        <v>517.580802053659</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>370.6908545557486</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>203.4947552706286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>1166.195182806534</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1056.376371837086</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>887.4401889091788</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>737.323549496843</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>589.41045591445</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>442.5205084165398</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>275.3244091314196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>133.6125779736176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6157,10 +6157,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602303</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602303</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1466.014387565343</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1238.024836667325</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>1238.024836667325</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,19 +6245,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273902</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.28814409505</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>917.5010142286941</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C28" t="n">
-        <v>748.5648313007872</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D28" t="n">
-        <v>598.4481918884514</v>
+        <v>261.8464821474258</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650328</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650328</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6388,7 +6388,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855601</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199799</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993912</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956951</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058934</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y28" t="n">
-        <v>1099.149479058934</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6449,49 +6449,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6503,10 +6503,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6546,16 +6546,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>870.3164745246276</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>701.3802915967207</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>551.2636521843849</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396416</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>429.5088224239596</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1026.887310050512</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1654.485273605118</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536376</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257307</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D34" t="n">
-        <v>555.815803413395</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>407.902709831002</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330916</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6859,13 +6859,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
@@ -6874,13 +6874,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6926,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,10 +6950,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>943.510265746755</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1540.888753373307</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7105,10 +7105,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7129,16 +7129,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.35942226766</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.228921741679</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,10 +7406,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111719</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7494,19 +7494,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380883</v>
+        <v>580.8993044876696</v>
       </c>
       <c r="C43" t="n">
-        <v>572.9069687101814</v>
+        <v>411.9631215597627</v>
       </c>
       <c r="D43" t="n">
-        <v>422.7903292978457</v>
+        <v>261.846482147427</v>
       </c>
       <c r="E43" t="n">
-        <v>274.8772357154526</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>274.8772357154526</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>107.6811364303325</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>107.6811364303325</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614395</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683281</v>
+        <v>762.5477693179093</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.431557602303</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.75711592734967</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>31.75711592734438</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>39.33487250169944</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5354506463192</v>
       </c>
       <c r="H13" t="n">
         <v>140.3952899576898</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.60602965673453</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.88389128405876</v>
       </c>
       <c r="S13" t="n">
-        <v>181.2234294808677</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.453784930958</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>119.8275961556147</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>67.73660824514238</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.9652629614515</v>
       </c>
     </row>
     <row r="17">
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856607</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>108.5900162513297</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>174.9652629614514</v>
       </c>
     </row>
     <row r="20">
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.074338869684234e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>112.9792378643592</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>41.86788054217641</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823055</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>33.9334365515527</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>145.6085800303787</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>4.506629716720397</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856748</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25132,10 +25132,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>70.8818764268396</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>105.2672314396032</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823116</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228711</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>211.5151132204111</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>67.54000767002853</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>45.44677382459286</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,13 +26080,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>93.20571279564319</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>956006.8200867745</v>
+        <v>956006.8200867749</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959462.0866949385</v>
+        <v>959462.0866949382</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1003393.239780554</v>
+        <v>1003393.239780553</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787489</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
+        <v>431046.9291787487</v>
+      </c>
+      <c r="D2" t="n">
         <v>431046.9291787488</v>
       </c>
-      <c r="D2" t="n">
-        <v>431046.9291787487</v>
-      </c>
       <c r="E2" t="n">
-        <v>409717.2086086173</v>
+        <v>409717.2086086178</v>
       </c>
       <c r="F2" t="n">
         <v>411198.0371549734</v>
@@ -26332,28 +26332,28 @@
         <v>423751.9648372532</v>
       </c>
       <c r="I2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="J2" t="n">
+        <v>423751.964837253</v>
+      </c>
+      <c r="K2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="L2" t="n">
         <v>423751.9648372532</v>
       </c>
-      <c r="J2" t="n">
-        <v>423751.9648372533</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>423751.9648372532</v>
-      </c>
-      <c r="L2" t="n">
-        <v>423751.9648372533</v>
-      </c>
-      <c r="M2" t="n">
-        <v>423751.9648372533</v>
       </c>
       <c r="N2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="O2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.964837253</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>318003.9118900012</v>
+        <v>318003.9118900027</v>
       </c>
       <c r="F3" t="n">
-        <v>7231.652632334752</v>
+        <v>7231.652632333642</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83078.08318941925</v>
+        <v>83078.0831894196</v>
       </c>
       <c r="N3" t="n">
-        <v>1943.015143521846</v>
+        <v>1943.015143521568</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
@@ -26424,7 +26424,7 @@
         <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
-        <v>757.2631159393595</v>
+        <v>757.2631159393601</v>
       </c>
       <c r="F4" t="n">
         <v>761.3882086835451</v>
@@ -26433,16 +26433,16 @@
         <v>761.3882086835451</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687966</v>
@@ -26451,13 +26451,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>100503.4450505761</v>
+        <v>100503.4450505762</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-1099228.50121429</v>
       </c>
       <c r="C6" t="n">
-        <v>229516.244513303</v>
+        <v>229516.2445133029</v>
       </c>
       <c r="D6" t="n">
-        <v>229516.2445133029</v>
+        <v>229516.2445133033</v>
       </c>
       <c r="E6" t="n">
-        <v>-9547.411447899329</v>
+        <v>-9648.981545853483</v>
       </c>
       <c r="F6" t="n">
-        <v>302082.466490048</v>
+        <v>301987.9479566026</v>
       </c>
       <c r="G6" t="n">
-        <v>309314.1191223827</v>
+        <v>309219.6005889362</v>
       </c>
       <c r="H6" t="n">
-        <v>307192.7950064664</v>
+        <v>307158.0570810306</v>
       </c>
       <c r="I6" t="n">
-        <v>307192.7950064664</v>
+        <v>307158.0570810308</v>
       </c>
       <c r="J6" t="n">
-        <v>89661.59260918904</v>
+        <v>89626.85468375313</v>
       </c>
       <c r="K6" t="n">
-        <v>307192.7950064664</v>
+        <v>307158.0570810307</v>
       </c>
       <c r="L6" t="n">
-        <v>307192.7950064665</v>
+        <v>307158.0570810307</v>
       </c>
       <c r="M6" t="n">
-        <v>224114.7118170472</v>
+        <v>224079.9738916111</v>
       </c>
       <c r="N6" t="n">
-        <v>305249.7798629446</v>
+        <v>305215.041937509</v>
       </c>
       <c r="O6" t="n">
-        <v>307192.7950064663</v>
+        <v>307158.0570810307</v>
       </c>
       <c r="P6" t="n">
-        <v>307192.7950064664</v>
+        <v>307158.0570810306</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1361.702285822837</v>
+        <v>1361.702285822838</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1164.775250322997</v>
+        <v>1164.775250322998</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>271.9255852295387</v>
+        <v>271.92558522954</v>
       </c>
       <c r="F3" t="n">
-        <v>6.273214518836767</v>
+        <v>6.273214518835857</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>333.3737949207045</v>
+        <v>333.3737949207059</v>
       </c>
       <c r="F4" t="n">
-        <v>7.933037776651418</v>
+        <v>7.933037776650053</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>333.3737949207045</v>
+        <v>333.3737949207059</v>
       </c>
       <c r="N4" t="n">
-        <v>7.93303777665119</v>
+        <v>7.933037776650053</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>333.3737949207045</v>
+        <v>333.3737949207059</v>
       </c>
       <c r="N4" t="n">
-        <v>7.933037776651418</v>
+        <v>7.933037776650053</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>130.2441504997504</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>290.2444771426694</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>111.5175979008644</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>34.20913079139243</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>184.8522415299888</v>
+        <v>65.75137080161642</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>179.7382603152888</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>53.19728360828381</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>303.2472181276814</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>328.3173099230224</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>134.4530526737254</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>212.7285069582585</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.294843136781287e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2.262368070660159e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.628178329178923e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29484,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-9.950483246974996e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.798841391264194e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -29688,7 +29688,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-7.032208304403594e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233488</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.474180043508889</v>
+        <v>5.474180043508892</v>
       </c>
       <c r="H11" t="n">
-        <v>56.06244637058541</v>
+        <v>56.06244637058546</v>
       </c>
       <c r="I11" t="n">
-        <v>211.0433261273766</v>
+        <v>211.0433261273768</v>
       </c>
       <c r="J11" t="n">
-        <v>464.6141884677629</v>
+        <v>464.6141884677633</v>
       </c>
       <c r="K11" t="n">
-        <v>696.3362297094943</v>
+        <v>696.3362297094948</v>
       </c>
       <c r="L11" t="n">
-        <v>863.8666672160297</v>
+        <v>863.8666672160302</v>
       </c>
       <c r="M11" t="n">
-        <v>961.2181165647808</v>
+        <v>961.2181165647814</v>
       </c>
       <c r="N11" t="n">
-        <v>976.7716306134005</v>
+        <v>976.7716306134012</v>
       </c>
       <c r="O11" t="n">
-        <v>922.3377528057589</v>
+        <v>922.3377528057596</v>
       </c>
       <c r="P11" t="n">
-        <v>787.1939329816331</v>
+        <v>787.1939329816337</v>
       </c>
       <c r="Q11" t="n">
-        <v>591.1498601734709</v>
+        <v>591.1498601734712</v>
       </c>
       <c r="R11" t="n">
-        <v>343.8674621580655</v>
+        <v>343.8674621580657</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7428777414589</v>
+        <v>124.742877741459</v>
       </c>
       <c r="T11" t="n">
-        <v>23.96322314046017</v>
+        <v>23.96322314046019</v>
       </c>
       <c r="U11" t="n">
-        <v>0.437934403480711</v>
+        <v>0.4379344034807113</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.928944539317046</v>
+        <v>2.928944539317047</v>
       </c>
       <c r="H12" t="n">
-        <v>28.28743805077253</v>
+        <v>28.28743805077254</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.8430466387668</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>276.7210277255637</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>472.9603118598059</v>
       </c>
       <c r="L12" t="n">
-        <v>143.0099341042912</v>
+        <v>635.9535062232037</v>
       </c>
       <c r="M12" t="n">
-        <v>742.127745773446</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>761.7696589340417</v>
+        <v>761.7696589340421</v>
       </c>
       <c r="O12" t="n">
-        <v>696.870414141806</v>
+        <v>696.8704141418065</v>
       </c>
       <c r="P12" t="n">
-        <v>559.2999445297612</v>
+        <v>180.0271436791637</v>
       </c>
       <c r="Q12" t="n">
-        <v>373.877201194225</v>
+        <v>373.8772011942253</v>
       </c>
       <c r="R12" t="n">
-        <v>181.8514863972461</v>
+        <v>181.8514863972462</v>
       </c>
       <c r="S12" t="n">
-        <v>54.40386019301614</v>
+        <v>54.40386019301618</v>
       </c>
       <c r="T12" t="n">
-        <v>11.8057018931244</v>
+        <v>11.80570189312441</v>
       </c>
       <c r="U12" t="n">
-        <v>0.192693719691911</v>
+        <v>0.1926937196919111</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.455528712139542</v>
+        <v>2.455528712139543</v>
       </c>
       <c r="H13" t="n">
-        <v>21.83188254974976</v>
+        <v>21.83188254974977</v>
       </c>
       <c r="I13" t="n">
-        <v>73.84444527052369</v>
+        <v>73.84444527052375</v>
       </c>
       <c r="J13" t="n">
-        <v>173.6058799482656</v>
+        <v>173.6058799482657</v>
       </c>
       <c r="K13" t="n">
-        <v>285.2877903740304</v>
+        <v>285.2877903740305</v>
       </c>
       <c r="L13" t="n">
-        <v>365.0701505302734</v>
+        <v>365.0701505302736</v>
       </c>
       <c r="M13" t="n">
-        <v>384.9152871220192</v>
+        <v>384.9152871220195</v>
       </c>
       <c r="N13" t="n">
-        <v>375.7628619222267</v>
+        <v>375.7628619222269</v>
       </c>
       <c r="O13" t="n">
-        <v>347.0778219667783</v>
+        <v>347.0778219667785</v>
       </c>
       <c r="P13" t="n">
-        <v>296.9850362391314</v>
+        <v>296.9850362391316</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.6170451592484</v>
+        <v>205.6170451592485</v>
       </c>
       <c r="R13" t="n">
         <v>110.4095000931107</v>
       </c>
       <c r="S13" t="n">
-        <v>42.79316855610455</v>
+        <v>42.79316855610458</v>
       </c>
       <c r="T13" t="n">
-        <v>10.49180449732349</v>
+        <v>10.4918044973235</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1339379297530661</v>
+        <v>0.1339379297530662</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,7 +32081,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>553.392502062293</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,7 +32333,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32555,10 +32555,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>622.4211036182646</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>753.6188077738268</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33266,19 +33266,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>671.9287955253226</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33497,22 +33497,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>386.7287743289961</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>508.374771698973</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>314.4610577451606</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,7 +33983,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>509.0826837242976</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34214,22 +34214,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>429.5828357723605</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>616.9033572954396</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013304</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5674365569707049</v>
+        <v>0.5674365569708471</v>
       </c>
       <c r="J11" t="n">
-        <v>283.5682839410766</v>
+        <v>283.568283941077</v>
       </c>
       <c r="K11" t="n">
-        <v>476.2463786645138</v>
+        <v>476.2463786645142</v>
       </c>
       <c r="L11" t="n">
-        <v>628.1002522460424</v>
+        <v>628.1002522460431</v>
       </c>
       <c r="M11" t="n">
-        <v>730.8718833375081</v>
+        <v>730.8718833375087</v>
       </c>
       <c r="N11" t="n">
-        <v>747.3585670168095</v>
+        <v>747.3585670168102</v>
       </c>
       <c r="O11" t="n">
-        <v>692.2395413840721</v>
+        <v>692.2395413840728</v>
       </c>
       <c r="P11" t="n">
-        <v>555.9609372263635</v>
+        <v>555.9609372263642</v>
       </c>
       <c r="Q11" t="n">
-        <v>368.8441702990214</v>
+        <v>368.8441702990217</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2819243439334</v>
+        <v>128.2819243439336</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.320666638766781</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.883401058897</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>335.1188728854469</v>
       </c>
       <c r="L12" t="n">
-        <v>4.455554324417049</v>
+        <v>497.3991264433295</v>
       </c>
       <c r="M12" t="n">
-        <v>599.9937118514276</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>630.4279468507084</v>
+        <v>630.4279468507088</v>
       </c>
       <c r="O12" t="n">
-        <v>554.2741696973616</v>
+        <v>554.274169697362</v>
       </c>
       <c r="P12" t="n">
-        <v>425.325537115431</v>
+        <v>46.05273626483346</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.8954271082035</v>
+        <v>233.8954271082038</v>
       </c>
       <c r="R12" t="n">
-        <v>36.17198243328215</v>
+        <v>36.1719824332823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.61045850886948</v>
+        <v>46.6104585088696</v>
       </c>
       <c r="K13" t="n">
-        <v>156.274532203495</v>
+        <v>156.2745322034951</v>
       </c>
       <c r="L13" t="n">
-        <v>230.1854742490351</v>
+        <v>230.1854742490353</v>
       </c>
       <c r="M13" t="n">
-        <v>245.9895031744142</v>
+        <v>245.9895031744144</v>
       </c>
       <c r="N13" t="n">
-        <v>248.0773174569935</v>
+        <v>248.0773174569937</v>
       </c>
       <c r="O13" t="n">
-        <v>208.6212835149355</v>
+        <v>208.6212835149357</v>
       </c>
       <c r="P13" t="n">
-        <v>159.2570321899838</v>
+        <v>159.257032189984</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.11204352980255</v>
+        <v>54.11204352980266</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>414.8381222824188</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>483.8667238383904</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.2770956904935</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36914,19 +36914,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>529.7947616033043</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37145,22 +37145,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>244.1325298845517</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8203919190988</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,7 +37631,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>377.7409716409642</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37862,22 +37862,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>295.6084283580303</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -37938,7 +37938,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L43" t="n">
         <v>394.3420143191314</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>485.5616452121063</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
